--- a/data/trans_orig/P19-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>151727</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130309</v>
+        <v>130417</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>171258</v>
+        <v>173066</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3202506809676029</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2750445326484758</v>
+        <v>0.2752710515197204</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3614747055525427</v>
+        <v>0.3652907164678565</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>123</v>
@@ -765,19 +765,19 @@
         <v>125094</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>106791</v>
+        <v>108875</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>142896</v>
+        <v>141656</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4078978003281781</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3482162291389934</v>
+        <v>0.3550111099474169</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4659449253397146</v>
+        <v>0.4619025923746226</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>271</v>
@@ -786,19 +786,19 @@
         <v>276822</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>251845</v>
+        <v>249157</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>307096</v>
+        <v>304926</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3546916026123875</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3226889576585455</v>
+        <v>0.3192448980907723</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.39348224969974</v>
+        <v>0.3907016339247185</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>322049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>302518</v>
+        <v>300710</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>343467</v>
+        <v>343359</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6797493190323971</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6385252944474573</v>
+        <v>0.6347092835321435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7249554673515242</v>
+        <v>0.7247289484802797</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>175</v>
@@ -836,19 +836,19 @@
         <v>181586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>163784</v>
+        <v>165024</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>199889</v>
+        <v>197805</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.592102199671822</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5340550746602853</v>
+        <v>0.5380974076253771</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6517837708610066</v>
+        <v>0.644988890052583</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>482</v>
@@ -857,19 +857,19 @@
         <v>503635</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>473361</v>
+        <v>475531</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>528612</v>
+        <v>531300</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6453083973876126</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6065177503002603</v>
+        <v>0.6092983660752815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6773110423414546</v>
+        <v>0.6807551019092281</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>114222</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>98273</v>
+        <v>95765</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133081</v>
+        <v>134914</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3112868244721795</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2678223724555795</v>
+        <v>0.2609869954987209</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3626846458616517</v>
+        <v>0.3676804915945742</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -982,19 +982,19 @@
         <v>148958</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>128814</v>
+        <v>130852</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>167795</v>
+        <v>169246</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4005692689224</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3463991232540248</v>
+        <v>0.351880749949891</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4512247717203876</v>
+        <v>0.455128551561254</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>250</v>
@@ -1003,19 +1003,19 @@
         <v>263179</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>238563</v>
+        <v>237073</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>291012</v>
+        <v>290351</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3562259810725876</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3229069645080656</v>
+        <v>0.3208897861856199</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3938984465543472</v>
+        <v>0.3930034916985999</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>252712</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>233853</v>
+        <v>232020</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>268661</v>
+        <v>271169</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6887131755278205</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6373153541383483</v>
+        <v>0.6323195084054258</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7321776275444205</v>
+        <v>0.739013004501279</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>219</v>
@@ -1053,19 +1053,19 @@
         <v>222907</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>204070</v>
+        <v>202619</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>243051</v>
+        <v>241013</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5994307310776</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5487752282796124</v>
+        <v>0.544871448438746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6536008767459751</v>
+        <v>0.6481192500501091</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>463</v>
@@ -1074,19 +1074,19 @@
         <v>475620</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>447787</v>
+        <v>448448</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>500236</v>
+        <v>501726</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6437740189274124</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6061015534456528</v>
+        <v>0.6069965083014001</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6770930354919343</v>
+        <v>0.6791102138143799</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>132632</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113582</v>
+        <v>112974</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>152078</v>
+        <v>153455</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2445331624274049</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2094103265683153</v>
+        <v>0.2082889584190857</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2803859401117724</v>
+        <v>0.2829236294026214</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -1199,19 +1199,19 @@
         <v>51371</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39340</v>
+        <v>38899</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63606</v>
+        <v>62990</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3061793049045063</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2344726631459489</v>
+        <v>0.2318420137612509</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3790989000834109</v>
+        <v>0.3754257351461964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>184</v>
@@ -1220,19 +1220,19 @@
         <v>184003</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161158</v>
+        <v>161721</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>208914</v>
+        <v>208260</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2590974115356114</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2269283661563806</v>
+        <v>0.2277208438858515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2941743785917933</v>
+        <v>0.2932537424218431</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>409757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>390311</v>
+        <v>388934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>428807</v>
+        <v>429415</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.755466837572595</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7196140598882276</v>
+        <v>0.7170763705973786</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7905896734316846</v>
+        <v>0.7917110415809143</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -1270,19 +1270,19 @@
         <v>116411</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>104176</v>
+        <v>104792</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>128442</v>
+        <v>128883</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6938206950954937</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.620901099916589</v>
+        <v>0.6245742648538033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7655273368540506</v>
+        <v>0.7681579862387488</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>512</v>
@@ -1291,19 +1291,19 @@
         <v>526168</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>501257</v>
+        <v>501911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>549013</v>
+        <v>548450</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7409025884643886</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.705825621408207</v>
+        <v>0.706746257578157</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7730716338436197</v>
+        <v>0.7722791561141485</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>278250</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>248299</v>
+        <v>251081</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>310627</v>
+        <v>307652</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.224862368567135</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2006584415424253</v>
+        <v>0.2029068431554458</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2510277885281775</v>
+        <v>0.2486230416361823</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>222</v>
@@ -1416,19 +1416,19 @@
         <v>230014</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>204788</v>
+        <v>206463</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>253923</v>
+        <v>256471</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3220195378563055</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.286702835031708</v>
+        <v>0.2890480459971172</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3554931032429262</v>
+        <v>0.3590593185962538</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>496</v>
@@ -1437,19 +1437,19 @@
         <v>508264</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>464757</v>
+        <v>465992</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>544292</v>
+        <v>544589</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2604199173974828</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2381285758443434</v>
+        <v>0.2387609168185888</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2788800669460941</v>
+        <v>0.2790322222845082</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>959172</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>926795</v>
+        <v>929770</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>989123</v>
+        <v>986341</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7751376314328651</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7489722114718219</v>
+        <v>0.7513769583638178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7993415584575745</v>
+        <v>0.7970931568445543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>472</v>
@@ -1487,19 +1487,19 @@
         <v>484271</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>460362</v>
+        <v>457814</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>509497</v>
+        <v>507822</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6779804621436945</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6445068967570737</v>
+        <v>0.6409406814037463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7132971649682921</v>
+        <v>0.7109519540028828</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1421</v>
@@ -1508,19 +1508,19 @@
         <v>1443444</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1407416</v>
+        <v>1407119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1486951</v>
+        <v>1485716</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7395800826025172</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7211199330539059</v>
+        <v>0.7209677777154916</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7618714241556566</v>
+        <v>0.7612390831814112</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>65063</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51173</v>
+        <v>51921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80992</v>
+        <v>81242</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1856009230281228</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1459776006964952</v>
+        <v>0.1481118816204894</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2310403873182802</v>
+        <v>0.2317530445443222</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>163</v>
@@ -1633,19 +1633,19 @@
         <v>172901</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>150149</v>
+        <v>152032</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>196319</v>
+        <v>195251</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.304000208083325</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2639964673839352</v>
+        <v>0.2673088397552814</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3451759142926539</v>
+        <v>0.3432973827325039</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>229</v>
@@ -1654,19 +1654,19 @@
         <v>237964</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>212476</v>
+        <v>213565</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>265483</v>
+        <v>267133</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2588515381489445</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2311266184016799</v>
+        <v>0.2323103556758396</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2887859568651108</v>
+        <v>0.290580326410272</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>285492</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>269563</v>
+        <v>269313</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>299382</v>
+        <v>298634</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8143990769718773</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7689596126817198</v>
+        <v>0.7682469554556777</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8540223993035048</v>
+        <v>0.8518881183795105</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>376</v>
@@ -1704,19 +1704,19 @@
         <v>395851</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>372433</v>
+        <v>373501</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>418603</v>
+        <v>416720</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.695999791916675</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6548240857073462</v>
+        <v>0.6567026172674961</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7360035326160648</v>
+        <v>0.7326911602447189</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>650</v>
@@ -1725,19 +1725,19 @@
         <v>681343</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>653824</v>
+        <v>652174</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>706831</v>
+        <v>705742</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7411484618510555</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7112140431348892</v>
+        <v>0.7094196735897279</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7688733815983201</v>
+        <v>0.7676896443241604</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>70995</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>57575</v>
+        <v>56657</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86631</v>
+        <v>85234</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2380763503989167</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1930732473199701</v>
+        <v>0.1899973032475725</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.290511812351277</v>
+        <v>0.2858280632406504</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>332</v>
@@ -1850,19 +1850,19 @@
         <v>330658</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>299320</v>
+        <v>302900</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>358145</v>
+        <v>359347</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2649855909226845</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2398716734624351</v>
+        <v>0.2427403270676464</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2870130408118755</v>
+        <v>0.2879762962984903</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>407</v>
@@ -1871,19 +1871,19 @@
         <v>401653</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>369716</v>
+        <v>370888</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>435565</v>
+        <v>434370</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2597953153455911</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2391380227052269</v>
+        <v>0.2398959826297532</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2817300810128509</v>
+        <v>0.2809573130371382</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>227206</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211570</v>
+        <v>212967</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>240626</v>
+        <v>241544</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7619236496010834</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7094881876487229</v>
+        <v>0.7141719367593494</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8069267526800299</v>
+        <v>0.8100026967524275</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>905</v>
@@ -1921,19 +1921,19 @@
         <v>917177</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>889690</v>
+        <v>888488</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>948515</v>
+        <v>944935</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7350144090773155</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7129869591881244</v>
+        <v>0.7120237037015097</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7601283265375646</v>
+        <v>0.7572596729323535</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1136</v>
@@ -1942,19 +1942,19 @@
         <v>1144382</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1110470</v>
+        <v>1111665</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1176319</v>
+        <v>1175147</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7402046846544089</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7182699189871495</v>
+        <v>0.7190426869628618</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7608619772947731</v>
+        <v>0.7601040173702466</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>812889</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>767555</v>
+        <v>769416</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>867234</v>
+        <v>867927</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2486447313897659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.234778098265528</v>
+        <v>0.2353472647502813</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2652676768633113</v>
+        <v>0.2654796978271912</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1036</v>
@@ -2067,19 +2067,19 @@
         <v>1058996</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1002155</v>
+        <v>1006359</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1115792</v>
+        <v>1114553</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.313572266008814</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2967415272262469</v>
+        <v>0.2979862655480003</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3303896853052902</v>
+        <v>0.3300229750977671</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1837</v>
@@ -2088,19 +2088,19 @@
         <v>1871885</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1801736</v>
+        <v>1795251</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1948461</v>
+        <v>1947448</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2816356244044468</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.27108130041949</v>
+        <v>0.2701056302999208</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.293157025206963</v>
+        <v>0.2930045961581715</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2456389</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2402044</v>
+        <v>2401351</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2501723</v>
+        <v>2499862</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7513552686102342</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7347323231366888</v>
+        <v>0.7345203021728093</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7652219017344722</v>
+        <v>0.7646527352497187</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2259</v>
@@ -2138,19 +2138,19 @@
         <v>2318203</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2261407</v>
+        <v>2262646</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2375044</v>
+        <v>2370840</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.686427733991186</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6696103146947099</v>
+        <v>0.6699770249022325</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7032584727737531</v>
+        <v>0.7020137344519997</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4664</v>
@@ -2159,19 +2159,19 @@
         <v>4774592</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4698016</v>
+        <v>4699029</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4844741</v>
+        <v>4851226</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7183643755955531</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7068429747930369</v>
+        <v>0.7069954038418287</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7289186995805098</v>
+        <v>0.7298943697000797</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>154559</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>133864</v>
+        <v>135291</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>175613</v>
+        <v>177121</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3535104489366458</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.306176326951434</v>
+        <v>0.309441244176283</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4016674258144686</v>
+        <v>0.4051158535737076</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -2526,19 +2526,19 @@
         <v>119317</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101719</v>
+        <v>102445</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>137895</v>
+        <v>138581</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3794428419533269</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3234791240912803</v>
+        <v>0.3257880113846115</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4385225735348713</v>
+        <v>0.4407034900741649</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>250</v>
@@ -2547,19 +2547,19 @@
         <v>273876</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>243664</v>
+        <v>247136</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>301390</v>
+        <v>304842</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.364359099520751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3241657659461398</v>
+        <v>0.3287846530460527</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.400962908267557</v>
+        <v>0.4055557800547941</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>282652</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261598</v>
+        <v>260090</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>303347</v>
+        <v>301920</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6464895510633542</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5983325741855313</v>
+        <v>0.5948841464262925</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6938236730485657</v>
+        <v>0.690558755823717</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>175</v>
@@ -2597,19 +2597,19 @@
         <v>195137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>176559</v>
+        <v>175873</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>212735</v>
+        <v>212009</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.620557158046673</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5614774264651285</v>
+        <v>0.5592965099258351</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6765208759087196</v>
+        <v>0.6742119886153886</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>437</v>
@@ -2618,19 +2618,19 @@
         <v>477789</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>450275</v>
+        <v>446823</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>508001</v>
+        <v>504529</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.635640900479249</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.599037091732443</v>
+        <v>0.594444219945205</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6758342340538602</v>
+        <v>0.6712153469539471</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>138479</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>121400</v>
+        <v>118580</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>160887</v>
+        <v>160581</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3306579703142329</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2898781153019379</v>
+        <v>0.2831431885796611</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.384164794812314</v>
+        <v>0.3834347057965885</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>121</v>
@@ -2743,19 +2743,19 @@
         <v>137218</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120318</v>
+        <v>117421</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156458</v>
+        <v>158044</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4071179208384786</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3569780245340336</v>
+        <v>0.348382809113163</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4642026770768864</v>
+        <v>0.4689077904971566</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>246</v>
@@ -2764,19 +2764,19 @@
         <v>275696</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>245465</v>
+        <v>247404</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>302754</v>
+        <v>303940</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3647530935621855</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.324756702404398</v>
+        <v>0.3273220296626092</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.400550396158162</v>
+        <v>0.4021199953646734</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>280318</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>257910</v>
+        <v>258216</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>297397</v>
+        <v>300217</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6693420296857671</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6158352051876861</v>
+        <v>0.616565294203411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7101218846980623</v>
+        <v>0.7168568114203384</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>183</v>
@@ -2814,19 +2814,19 @@
         <v>199829</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>180589</v>
+        <v>179003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>216729</v>
+        <v>219626</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5928820791615214</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5357973229231138</v>
+        <v>0.5310922095028434</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6430219754659665</v>
+        <v>0.6516171908868369</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>433</v>
@@ -2835,19 +2835,19 @@
         <v>480148</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>453090</v>
+        <v>451904</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>510379</v>
+        <v>508440</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6352469064378145</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5994496038418381</v>
+        <v>0.5978800046353268</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.675243297595602</v>
+        <v>0.672677970337391</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>134293</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114231</v>
+        <v>115298</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156846</v>
+        <v>156041</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2142169913198212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1822158513540524</v>
+        <v>0.1839173354358677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2501922674482268</v>
+        <v>0.2489085936238172</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -2960,19 +2960,19 @@
         <v>94436</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79494</v>
+        <v>79260</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>109142</v>
+        <v>110515</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3630367832899543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3055947298385548</v>
+        <v>0.3046953767186057</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4195689455546088</v>
+        <v>0.4248450397078217</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>217</v>
@@ -2981,19 +2981,19 @@
         <v>228730</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>204659</v>
+        <v>201322</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>257779</v>
+        <v>255698</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.257859666601683</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2307240578715261</v>
+        <v>0.2269611088443901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2906087288350374</v>
+        <v>0.2882625987529235</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>492609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>470056</v>
+        <v>470861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>512671</v>
+        <v>511604</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7857830086801788</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7498077325517739</v>
+        <v>0.7510914063761829</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8177841486459478</v>
+        <v>0.8160826645641324</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>156</v>
@@ -3031,19 +3031,19 @@
         <v>165693</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150987</v>
+        <v>149614</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>180635</v>
+        <v>180869</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6369632167100457</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5804310544453912</v>
+        <v>0.5751549602921785</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6944052701614454</v>
+        <v>0.6953046232813943</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>616</v>
@@ -3052,19 +3052,19 @@
         <v>658301</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>629252</v>
+        <v>631333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>682372</v>
+        <v>685709</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.742140333398317</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7093912711649626</v>
+        <v>0.7117374012470764</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7692759421284739</v>
+        <v>0.7730388911556099</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>219482</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>192607</v>
+        <v>194655</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>250936</v>
+        <v>247599</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1893707276024718</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1661825914522135</v>
+        <v>0.1679492686046373</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2165093305590491</v>
+        <v>0.2136302102054307</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>199</v>
@@ -3177,19 +3177,19 @@
         <v>212761</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>186309</v>
+        <v>187678</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>236815</v>
+        <v>239389</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2775176238316984</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2430151605190914</v>
+        <v>0.2448002590974704</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3088933746664373</v>
+        <v>0.3122505085449571</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>409</v>
@@ -3198,19 +3198,19 @@
         <v>432243</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>395319</v>
+        <v>393407</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>471096</v>
+        <v>469894</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2244642743187113</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2052895682494699</v>
+        <v>0.2042962486712519</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2446405938449104</v>
+        <v>0.2440163519680391</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>939527</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>908073</v>
+        <v>911410</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>966402</v>
+        <v>964354</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8106292723975282</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7834906694409506</v>
+        <v>0.7863697897945694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8338174085477865</v>
+        <v>0.8320507313953627</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>512</v>
@@ -3248,19 +3248,19 @@
         <v>553896</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>529842</v>
+        <v>527268</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>580348</v>
+        <v>578979</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7224823761683016</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6911066253335627</v>
+        <v>0.6877494914550428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7569848394809087</v>
+        <v>0.7551997409025295</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1385</v>
@@ -3269,19 +3269,19 @@
         <v>1493424</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1454571</v>
+        <v>1455773</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1530348</v>
+        <v>1532260</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7755357256812887</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7553594061550896</v>
+        <v>0.7559836480319608</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.79471043175053</v>
+        <v>0.795703751328748</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>104858</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87105</v>
+        <v>86864</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>123197</v>
+        <v>123880</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.20536484643009</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1705955331143323</v>
+        <v>0.1701230069333249</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2412815454497022</v>
+        <v>0.2426183716283676</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>205</v>
@@ -3394,19 +3394,19 @@
         <v>219007</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>194063</v>
+        <v>195550</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>243802</v>
+        <v>242907</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2875908137714447</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2548351601144426</v>
+        <v>0.2567885130195272</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3201508564074019</v>
+        <v>0.3189758119798012</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>305</v>
@@ -3415,19 +3415,19 @@
         <v>323865</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>292811</v>
+        <v>292910</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>355752</v>
+        <v>357919</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2545873709200859</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2301761275315901</v>
+        <v>0.2302539909254054</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2796536463854865</v>
+        <v>0.2813564775450137</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>405738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>387399</v>
+        <v>386716</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>423491</v>
+        <v>423732</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.79463515356991</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7587184545502977</v>
+        <v>0.7573816283716321</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8294044668856676</v>
+        <v>0.829876993066675</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>498</v>
@@ -3465,19 +3465,19 @@
         <v>542515</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>517720</v>
+        <v>518615</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>567459</v>
+        <v>565972</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7124091862285552</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6798491435925981</v>
+        <v>0.6810241880201988</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7451648398855574</v>
+        <v>0.7432114869804728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>885</v>
@@ -3486,19 +3486,19 @@
         <v>948253</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>916366</v>
+        <v>914199</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>979307</v>
+        <v>979208</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7454126290799141</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7203463536145136</v>
+        <v>0.7186435224549864</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.76982387246841</v>
+        <v>0.7697460090745948</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>89951</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75454</v>
+        <v>75363</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107105</v>
+        <v>105916</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3370428721848397</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2827250527461752</v>
+        <v>0.2823838948954425</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4013189092772948</v>
+        <v>0.396866362780628</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>275</v>
@@ -3611,19 +3611,19 @@
         <v>296117</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>266231</v>
+        <v>269046</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>327459</v>
+        <v>327473</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2669283521734423</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2399876883849447</v>
+        <v>0.2425257024644375</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2951806909884991</v>
+        <v>0.2951931803366678</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>364</v>
@@ -3632,19 +3632,19 @@
         <v>386068</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>356621</v>
+        <v>353807</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>423159</v>
+        <v>421037</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2805251019113821</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2591283065533104</v>
+        <v>0.2570833288325472</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3074760245738941</v>
+        <v>0.3059344470902107</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>176931</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>159777</v>
+        <v>160966</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>191428</v>
+        <v>191519</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6629571278151603</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5986810907227053</v>
+        <v>0.603133637219372</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7172749472538251</v>
+        <v>0.7176161051045575</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>769</v>
@@ -3682,19 +3682,19 @@
         <v>813234</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>781892</v>
+        <v>781878</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>843120</v>
+        <v>840305</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7330716478265576</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.704819309011501</v>
+        <v>0.7048068196633324</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7600123116150552</v>
+        <v>0.7574742975355629</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>945</v>
@@ -3703,19 +3703,19 @@
         <v>990165</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>953074</v>
+        <v>955196</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1019612</v>
+        <v>1022426</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7194748980886179</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6925239754261058</v>
+        <v>0.6940655529097887</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7408716934466894</v>
+        <v>0.7429166711674527</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>841622</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>788537</v>
+        <v>788856</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>894322</v>
+        <v>894865</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2461316254697807</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.230606909521731</v>
+        <v>0.2307001907036328</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2615437213134642</v>
+        <v>0.2617026344071601</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>996</v>
@@ -3828,19 +3828,19 @@
         <v>1078857</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1022656</v>
+        <v>1023789</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1136332</v>
+        <v>1136863</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3039751339282435</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2881401644789852</v>
+        <v>0.2884594008906408</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3201692835672062</v>
+        <v>0.3203186730386339</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1791</v>
@@ -3849,19 +3849,19 @@
         <v>1920478</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1848066</v>
+        <v>1842364</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1999954</v>
+        <v>1996530</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2755919433161204</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2652005736885908</v>
+        <v>0.2643824536454498</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2869968824105696</v>
+        <v>0.2865054652255278</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2577775</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2525075</v>
+        <v>2524532</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2630860</v>
+        <v>2630541</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7538683745302194</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7384562786865361</v>
+        <v>0.7382973655928403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7693930904782692</v>
+        <v>0.7692998092963674</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2293</v>
@@ -3899,19 +3899,19 @@
         <v>2470304</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2412829</v>
+        <v>2412298</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2526505</v>
+        <v>2525372</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6960248660717564</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6798307164327938</v>
+        <v>0.6796813269613662</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7118598355210149</v>
+        <v>0.7115405991093592</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4701</v>
@@ -3920,19 +3920,19 @@
         <v>5048080</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4968604</v>
+        <v>4972028</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5120492</v>
+        <v>5126194</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7244080566838795</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7130031175894305</v>
+        <v>0.7134945347744722</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7347994263114093</v>
+        <v>0.7356175463545501</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>149821</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130697</v>
+        <v>130410</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>169917</v>
+        <v>170710</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3491573969561522</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3045900422929751</v>
+        <v>0.3039216247419316</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3959917212384709</v>
+        <v>0.3978411725046951</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>140</v>
@@ -4287,19 +4287,19 @@
         <v>145476</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>126341</v>
+        <v>126471</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164119</v>
+        <v>163909</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4191731902005514</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3640384610548891</v>
+        <v>0.3644119213381937</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.47289116849622</v>
+        <v>0.4722859090207537</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>277</v>
@@ -4308,19 +4308,19 @@
         <v>295297</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>265875</v>
+        <v>266595</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>323100</v>
+        <v>323500</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3804650322102651</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3425580093147103</v>
+        <v>0.3434855324234063</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4162869101285623</v>
+        <v>0.4168029425973189</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>279271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>259175</v>
+        <v>258382</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>298395</v>
+        <v>298682</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6508426030438478</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6040082787615293</v>
+        <v>0.6021588274953048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6954099577070254</v>
+        <v>0.6960783752580679</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -4358,19 +4358,19 @@
         <v>201579</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>182936</v>
+        <v>183146</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>220714</v>
+        <v>220584</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5808268097994486</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.52710883150378</v>
+        <v>0.5277140909792464</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6359615389451109</v>
+        <v>0.6355880786618063</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>451</v>
@@ -4379,19 +4379,19 @@
         <v>480850</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>453047</v>
+        <v>452647</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>510272</v>
+        <v>509552</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6195349677897349</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5837130898714373</v>
+        <v>0.5831970574026811</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6574419906852896</v>
+        <v>0.6565144675765937</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>120859</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>102956</v>
+        <v>101769</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>142385</v>
+        <v>138678</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3203867106454598</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2729274671422085</v>
+        <v>0.2697818907131337</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3774510543267931</v>
+        <v>0.367624798869822</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -4504,19 +4504,19 @@
         <v>156848</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137274</v>
+        <v>138173</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>175860</v>
+        <v>177373</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4213253947955952</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3687442351209863</v>
+        <v>0.3711597493286969</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4723954453733159</v>
+        <v>0.4764599137766448</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>257</v>
@@ -4525,19 +4525,19 @@
         <v>277707</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>253852</v>
+        <v>251372</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>308107</v>
+        <v>302967</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3705224820301835</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3386945303560195</v>
+        <v>0.3353860150902889</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4110830446714746</v>
+        <v>0.4042252222104354</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>256368</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>234842</v>
+        <v>238549</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>274271</v>
+        <v>275458</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6796132893545401</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.622548945673207</v>
+        <v>0.632375201130178</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7270725328577914</v>
+        <v>0.7302181092868664</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>208</v>
@@ -4575,19 +4575,19 @@
         <v>215425</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>196413</v>
+        <v>194900</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>234999</v>
+        <v>234100</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5786746052044048</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5276045546266841</v>
+        <v>0.523540086223355</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6312557648790136</v>
+        <v>0.6288402506713031</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>449</v>
@@ -4596,19 +4596,19 @@
         <v>471793</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>441393</v>
+        <v>446533</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>495648</v>
+        <v>498128</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6294775179698165</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5889169553285254</v>
+        <v>0.5957747777895643</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6613054696439805</v>
+        <v>0.664613984909711</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>139946</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>118488</v>
+        <v>121117</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158405</v>
+        <v>159909</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.268140703271075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.227026816936638</v>
+        <v>0.232063896606835</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3035071301686775</v>
+        <v>0.306390294757596</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -4721,19 +4721,19 @@
         <v>57493</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45347</v>
+        <v>45907</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70736</v>
+        <v>70929</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3460852436380616</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.272969663960046</v>
+        <v>0.2763442969436644</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4258078716462818</v>
+        <v>0.4269659016324399</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>187</v>
@@ -4742,19 +4742,19 @@
         <v>197439</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>171693</v>
+        <v>174811</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>221464</v>
+        <v>221865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2869600038592549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2495411038461535</v>
+        <v>0.2540728779096774</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.321879127649748</v>
+        <v>0.3224617051431916</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>381968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>363509</v>
+        <v>362005</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>403426</v>
+        <v>400797</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7318592967289249</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6964928698313223</v>
+        <v>0.6936097052424041</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7729731830633619</v>
+        <v>0.767936103393165</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>100</v>
@@ -4792,19 +4792,19 @@
         <v>108630</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>95387</v>
+        <v>95194</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>120776</v>
+        <v>120216</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6539147563619384</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5741921283537184</v>
+        <v>0.5730340983675599</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7270303360399542</v>
+        <v>0.7236557030563355</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>468</v>
@@ -4813,19 +4813,19 @@
         <v>490597</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>466572</v>
+        <v>466171</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>516343</v>
+        <v>513225</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7130399961407451</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.678120872350252</v>
+        <v>0.6775382948568085</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7504588961538464</v>
+        <v>0.7459271220903234</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>301275</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>272336</v>
+        <v>270629</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>331166</v>
+        <v>334580</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2620608686163928</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2368881894083541</v>
+        <v>0.2354034785989361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.28806145575375</v>
+        <v>0.2910304535773013</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>284</v>
@@ -4938,19 +4938,19 @@
         <v>291991</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>267621</v>
+        <v>267003</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>320766</v>
+        <v>321673</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.353553027786185</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3240447297365843</v>
+        <v>0.3232970390594503</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3883943564696064</v>
+        <v>0.3894931029243697</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>565</v>
@@ -4959,19 +4959,19 @@
         <v>593266</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>547989</v>
+        <v>551387</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>634138</v>
+        <v>636207</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3003097277591031</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2773907828762346</v>
+        <v>0.2791106163848661</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3209988121356332</v>
+        <v>0.322046116731309</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>848363</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>818472</v>
+        <v>815058</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>877302</v>
+        <v>879009</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7379391313836072</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7119385442462501</v>
+        <v>0.7089695464226984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.763111810591646</v>
+        <v>0.7645965214010637</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>514</v>
@@ -5009,19 +5009,19 @@
         <v>533885</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>505110</v>
+        <v>504203</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>558255</v>
+        <v>558873</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6464469722138151</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6116056435303936</v>
+        <v>0.6105068970756302</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6759552702634157</v>
+        <v>0.6767029609405497</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1336</v>
@@ -5030,19 +5030,19 @@
         <v>1382248</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1341376</v>
+        <v>1339307</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1427525</v>
+        <v>1424127</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6996902722408969</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6790011878643674</v>
+        <v>0.6779538832686911</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.722609217123766</v>
+        <v>0.720889383615134</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>149708</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>128779</v>
+        <v>129509</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>170228</v>
+        <v>171975</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2411904072196509</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2074724484304708</v>
+        <v>0.2086483902623313</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2742485548853716</v>
+        <v>0.277063085155783</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>217</v>
@@ -5155,19 +5155,19 @@
         <v>226915</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>201827</v>
+        <v>202395</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>252176</v>
+        <v>254374</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3073707166557628</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.273387539652428</v>
+        <v>0.2741573265685102</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3415892887381602</v>
+        <v>0.3445669336018435</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>357</v>
@@ -5176,19 +5176,19 @@
         <v>376623</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>343553</v>
+        <v>342167</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>411779</v>
+        <v>406642</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2771425942489331</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2528075518589401</v>
+        <v>0.2517874956535113</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3030125561099767</v>
+        <v>0.2992325654866491</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>470998</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>450478</v>
+        <v>448731</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>491927</v>
+        <v>491197</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7588095927803491</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7257514451146284</v>
+        <v>0.7229369148442168</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7925275515695293</v>
+        <v>0.7913516097376687</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>482</v>
@@ -5226,19 +5226,19 @@
         <v>511329</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>486068</v>
+        <v>483870</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>536417</v>
+        <v>535849</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6926292833442372</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6584107112618398</v>
+        <v>0.6554330663981566</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.726612460347572</v>
+        <v>0.7258426734314898</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>939</v>
@@ -5247,19 +5247,19 @@
         <v>982327</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>947171</v>
+        <v>952308</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1015397</v>
+        <v>1016783</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7228574057510669</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.696987443890023</v>
+        <v>0.700767434513351</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7471924481410598</v>
+        <v>0.7482125043464887</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>119628</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>104372</v>
+        <v>102126</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>138079</v>
+        <v>136266</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4166113781614178</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3634804954387459</v>
+        <v>0.3556610478617639</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4808669615262862</v>
+        <v>0.4745532799250103</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>324</v>
@@ -5372,19 +5372,19 @@
         <v>341372</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>312415</v>
+        <v>309144</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>376330</v>
+        <v>376740</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3154933407115277</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2887319315869241</v>
+        <v>0.285708904919223</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3478015009625567</v>
+        <v>0.3481807922164938</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>436</v>
@@ -5393,19 +5393,19 @@
         <v>461000</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>423525</v>
+        <v>423142</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>497312</v>
+        <v>494001</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3367000234320609</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3093296363154221</v>
+        <v>0.3090500583626519</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3632213345436921</v>
+        <v>0.3608034216741227</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>167517</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>149066</v>
+        <v>150879</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>182773</v>
+        <v>185019</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5833886218385822</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5191330384737139</v>
+        <v>0.5254467200749897</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6365195045612542</v>
+        <v>0.6443389521382363</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>668</v>
@@ -5443,19 +5443,19 @@
         <v>740653</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>705695</v>
+        <v>705285</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>769610</v>
+        <v>772881</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6845066592884723</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6521984990374432</v>
+        <v>0.6518192077835063</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7112680684130761</v>
+        <v>0.7142910950807769</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>828</v>
@@ -5464,19 +5464,19 @@
         <v>908170</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>871858</v>
+        <v>875169</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>945645</v>
+        <v>946028</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6632999765679392</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.636778665456308</v>
+        <v>0.6391965783258774</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6906703636845783</v>
+        <v>0.6909499416373479</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>981237</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>931469</v>
+        <v>925838</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1035764</v>
+        <v>1032272</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2898161511787308</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2751167437347289</v>
+        <v>0.2734535389232517</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3059210521616128</v>
+        <v>0.3048897868644272</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1162</v>
@@ -5589,19 +5589,19 @@
         <v>1220094</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1162572</v>
+        <v>1159701</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1278044</v>
+        <v>1271210</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3454795488604521</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3291915788883754</v>
+        <v>0.3283787120985998</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3618884548821255</v>
+        <v>0.3599534570498588</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2079</v>
@@ -5610,19 +5610,19 @@
         <v>2201331</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2115046</v>
+        <v>2119935</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2281446</v>
+        <v>2274789</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3182347700995108</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3057610169455504</v>
+        <v>0.3064677148103975</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3298165475445061</v>
+        <v>0.3288542095395513</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2404485</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2349958</v>
+        <v>2353450</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2454253</v>
+        <v>2459884</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7101838488212692</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.694078947838387</v>
+        <v>0.6951102131355725</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7248832562652711</v>
+        <v>0.7265464610767481</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2164</v>
@@ -5660,19 +5660,19 @@
         <v>2311502</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2253552</v>
+        <v>2260386</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2369024</v>
+        <v>2371895</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6545204511395479</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6381115451178746</v>
+        <v>0.6400465429501411</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6708084211116246</v>
+        <v>0.6716212879014</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4471</v>
@@ -5681,19 +5681,19 @@
         <v>4715987</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4635872</v>
+        <v>4642529</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4802272</v>
+        <v>4797383</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6817652299004892</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6701834524554939</v>
+        <v>0.6711457904604488</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6942389830544496</v>
+        <v>0.6935322851896025</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>204500</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>180857</v>
+        <v>181477</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>231520</v>
+        <v>227778</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3749405006151787</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3315911090173977</v>
+        <v>0.3327285233106138</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4244801144780626</v>
+        <v>0.4176185153831559</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>301</v>
@@ -6048,19 +6048,19 @@
         <v>219386</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>199612</v>
+        <v>202121</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>238800</v>
+        <v>240316</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4498368110242658</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4092900648260292</v>
+        <v>0.4144358042603275</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4896432191163583</v>
+        <v>0.4927522482471286</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>500</v>
@@ -6069,19 +6069,19 @@
         <v>423887</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>394235</v>
+        <v>396204</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>454953</v>
+        <v>459201</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4102964930465826</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3815949665655288</v>
+        <v>0.3835013229740488</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4403666118350384</v>
+        <v>0.4444778738543675</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>340921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>313901</v>
+        <v>317643</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>364564</v>
+        <v>363944</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6250594993848215</v>
+        <v>0.6250594993848214</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5755198855219374</v>
+        <v>0.5823814846168441</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6684088909826023</v>
+        <v>0.6672714766893864</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>384</v>
@@ -6119,19 +6119,19 @@
         <v>268316</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248902</v>
+        <v>247386</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>288090</v>
+        <v>285581</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5501631889757344</v>
+        <v>0.5501631889757342</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5103567808836417</v>
+        <v>0.5072477517528713</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5907099351739707</v>
+        <v>0.5855641957396726</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>734</v>
@@ -6140,19 +6140,19 @@
         <v>609237</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>578171</v>
+        <v>573923</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>638889</v>
+        <v>636920</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5897035069534173</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5596333881649616</v>
+        <v>0.5555221261456319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6184050334344712</v>
+        <v>0.6164986770259506</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>142824</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>121513</v>
+        <v>124030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>163184</v>
+        <v>164487</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.297269294326966</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2529144841650168</v>
+        <v>0.258151955443654</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.33964637181943</v>
+        <v>0.3423581273842837</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>242</v>
@@ -6265,19 +6265,19 @@
         <v>176680</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>160352</v>
+        <v>158098</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>196040</v>
+        <v>194495</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4222383280612419</v>
+        <v>0.422238328061242</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3832183959044674</v>
+        <v>0.3778309084241235</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.468507573756837</v>
+        <v>0.4648131222101411</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>381</v>
@@ -6286,19 +6286,19 @@
         <v>319504</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>292503</v>
+        <v>293331</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>346547</v>
+        <v>347895</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3554428990826367</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3254052200203387</v>
+        <v>0.3263266630809938</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3855282104924638</v>
+        <v>0.3870277993386194</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>337628</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>317268</v>
+        <v>315965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>358939</v>
+        <v>356422</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7027307056730341</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6603536281805701</v>
+        <v>0.6576418726157164</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7470855158349834</v>
+        <v>0.741848044556346</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>341</v>
@@ -6336,19 +6336,19 @@
         <v>241756</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>222396</v>
+        <v>223941</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>258084</v>
+        <v>260338</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5777616719387579</v>
+        <v>0.577761671938758</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.531492426243163</v>
+        <v>0.5351868777898586</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6167816040955328</v>
+        <v>0.6221690915758761</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>680</v>
@@ -6357,19 +6357,19 @@
         <v>579385</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>552342</v>
+        <v>550994</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>606386</v>
+        <v>605558</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6445571009173634</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6144717895075362</v>
+        <v>0.6129722006613807</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.674594779979662</v>
+        <v>0.6736733369190062</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>143014</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122561</v>
+        <v>122013</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>162354</v>
+        <v>165825</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3048027230471658</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.261211995364695</v>
+        <v>0.2600436166561059</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3460205974051834</v>
+        <v>0.3534186314031032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -6482,19 +6482,19 @@
         <v>58925</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48789</v>
+        <v>48967</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70817</v>
+        <v>69865</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3154139253089726</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2611544980640473</v>
+        <v>0.2621110698444487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3790680257292977</v>
+        <v>0.3739727589006874</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>222</v>
@@ -6503,19 +6503,19 @@
         <v>201940</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>178101</v>
+        <v>177858</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>226258</v>
+        <v>226291</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.307824535484261</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2714860500144491</v>
+        <v>0.2711150982400184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3448929759554052</v>
+        <v>0.3449442700955926</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>326189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>306849</v>
+        <v>303378</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>346642</v>
+        <v>347190</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6951972769528343</v>
+        <v>0.6951972769528342</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6539794025948165</v>
+        <v>0.6465813685968969</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7387880046353051</v>
+        <v>0.7399563833438941</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>202</v>
@@ -6553,19 +6553,19 @@
         <v>127894</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>116002</v>
+        <v>116954</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>138030</v>
+        <v>137852</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6845860746910275</v>
+        <v>0.6845860746910274</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6209319742707021</v>
+        <v>0.6260272410993126</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7388455019359527</v>
+        <v>0.7378889301555511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>552</v>
@@ -6574,19 +6574,19 @@
         <v>454083</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>429765</v>
+        <v>429732</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>477922</v>
+        <v>478165</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.692175464515739</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6551070240445948</v>
+        <v>0.6550557299044072</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7285139499855506</v>
+        <v>0.7288849017599816</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>245940</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>212167</v>
+        <v>215408</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>273452</v>
+        <v>277223</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2187443292930878</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1887061751434147</v>
+        <v>0.1915883323958099</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2432140063325275</v>
+        <v>0.2465679186846672</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>400</v>
@@ -6699,19 +6699,19 @@
         <v>294310</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>270903</v>
+        <v>270723</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>321396</v>
+        <v>319559</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3439711214696958</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3166153365345534</v>
+        <v>0.3164044187401737</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.375628216650132</v>
+        <v>0.3734806142164276</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>627</v>
@@ -6720,19 +6720,19 @@
         <v>540250</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>501031</v>
+        <v>500268</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>580977</v>
+        <v>580470</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2728603395554153</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2530525503740498</v>
+        <v>0.2526673108790686</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2934304271919638</v>
+        <v>0.2931743229244856</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>878386</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>850874</v>
+        <v>847103</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>912159</v>
+        <v>908918</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7812556707069123</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7567859936674725</v>
+        <v>0.7534320813153328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8112938248565854</v>
+        <v>0.8084116676041899</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>822</v>
@@ -6770,19 +6770,19 @@
         <v>561313</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>534227</v>
+        <v>536064</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>584720</v>
+        <v>584900</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.656028878530304</v>
+        <v>0.6560288785303042</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6243717833498675</v>
+        <v>0.6265193857835722</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6833846634654465</v>
+        <v>0.6835955812598262</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1705</v>
@@ -6791,19 +6791,19 @@
         <v>1439699</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1398972</v>
+        <v>1399479</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1478918</v>
+        <v>1479681</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7271396604445846</v>
+        <v>0.7271396604445847</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7065695728080359</v>
+        <v>0.7068256770755131</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7469474496259502</v>
+        <v>0.7473326891209314</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>93004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74193</v>
+        <v>73997</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115374</v>
+        <v>114298</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1647690889397959</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1314425991335166</v>
+        <v>0.1310954415246267</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2043997089467895</v>
+        <v>0.2024944512236092</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>281</v>
@@ -6916,19 +6916,19 @@
         <v>187952</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>168687</v>
+        <v>168259</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>208653</v>
+        <v>207533</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2289219758979471</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2054577834558815</v>
+        <v>0.2049366160960183</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2541358810010224</v>
+        <v>0.2527717820438746</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>360</v>
@@ -6937,19 +6937,19 @@
         <v>280956</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>255484</v>
+        <v>252689</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>311210</v>
+        <v>310153</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2027857714148825</v>
+        <v>0.2027857714148826</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1844010474252887</v>
+        <v>0.1823836228064364</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2246223123880926</v>
+        <v>0.2238593965450633</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>471447</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>449077</v>
+        <v>450153</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>490258</v>
+        <v>490454</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8352309110602041</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7956002910532105</v>
+        <v>0.7975055487763907</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8685574008664833</v>
+        <v>0.8689045584753733</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>994</v>
@@ -6987,19 +6987,19 @@
         <v>633077</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>612376</v>
+        <v>613496</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>652342</v>
+        <v>652770</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7710780241020527</v>
+        <v>0.7710780241020531</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7458641189989773</v>
+        <v>0.7472282179561254</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7945422165441184</v>
+        <v>0.7950633839039817</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1458</v>
@@ -7008,19 +7008,19 @@
         <v>1104524</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1074270</v>
+        <v>1075327</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1129996</v>
+        <v>1132791</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7972142285851174</v>
+        <v>0.7972142285851175</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7753776876119073</v>
+        <v>0.7761406034549369</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8155989525747112</v>
+        <v>0.8176163771935641</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>72414</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51883</v>
+        <v>51390</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>96041</v>
+        <v>95188</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.306668905945463</v>
+        <v>0.3066689059454631</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2197229485803602</v>
+        <v>0.2176344219061409</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4067312946197417</v>
+        <v>0.4031171374774778</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>235</v>
@@ -7133,19 +7133,19 @@
         <v>188209</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>166400</v>
+        <v>165949</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>213726</v>
+        <v>214772</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2260692131035596</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1998722430596417</v>
+        <v>0.1993313332269364</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2567190069073401</v>
+        <v>0.2579745112440633</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>268</v>
@@ -7154,19 +7154,19 @@
         <v>260623</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>229485</v>
+        <v>225896</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>297619</v>
+        <v>297039</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2438784281038717</v>
+        <v>0.2438784281038716</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2147410675712001</v>
+        <v>0.2113825581610499</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2784973933180162</v>
+        <v>0.277954813288919</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>163716</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>140089</v>
+        <v>140942</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>184247</v>
+        <v>184740</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6933310940545367</v>
+        <v>0.6933310940545369</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5932687053802582</v>
+        <v>0.5968828625225229</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.78027705141964</v>
+        <v>0.7823655780938591</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>909</v>
@@ -7204,19 +7204,19 @@
         <v>644321</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>618804</v>
+        <v>617758</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>666130</v>
+        <v>666581</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7739307868964405</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7432809930926599</v>
+        <v>0.7420254887559364</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8001277569403583</v>
+        <v>0.8006686667730635</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>987</v>
@@ -7225,19 +7225,19 @@
         <v>808037</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>771041</v>
+        <v>771621</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>839175</v>
+        <v>842764</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7561215718961285</v>
+        <v>0.7561215718961283</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7215026066819838</v>
+        <v>0.7220451867110811</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7852589324287994</v>
+        <v>0.78861744183895</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>901696</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>843706</v>
+        <v>842308</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>960387</v>
+        <v>958319</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2636551588906857</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2466989061917195</v>
+        <v>0.2462900766222586</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2808162187519516</v>
+        <v>0.280211475598326</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1545</v>
@@ -7350,19 +7350,19 @@
         <v>1125462</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1072200</v>
+        <v>1075244</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1175871</v>
+        <v>1173596</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3124427115504521</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2976565138874457</v>
+        <v>0.2985015497399594</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3264367629630456</v>
+        <v>0.325805334866993</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2358</v>
@@ -7371,19 +7371,19 @@
         <v>2027159</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1953882</v>
+        <v>1948496</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2112814</v>
+        <v>2100737</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2886817169531222</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2782466865458244</v>
+        <v>0.2774796604454705</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3008797058411387</v>
+        <v>0.2991598419577924</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2518288</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2459597</v>
+        <v>2461665</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2576278</v>
+        <v>2577676</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7363448411093142</v>
+        <v>0.7363448411093141</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7191837812480484</v>
+        <v>0.719788524401674</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7533010938082806</v>
+        <v>0.7537099233777412</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3652</v>
@@ -7421,19 +7421,19 @@
         <v>2476678</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2426269</v>
+        <v>2428544</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2529940</v>
+        <v>2526896</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6875572884495479</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6735632370369543</v>
+        <v>0.6741946651330071</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7023434861125541</v>
+        <v>0.7014984502600407</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6116</v>
@@ -7442,19 +7442,19 @@
         <v>4994964</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4909309</v>
+        <v>4921386</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5068241</v>
+        <v>5073627</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7113182830468778</v>
+        <v>0.7113182830468779</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6991202941588611</v>
+        <v>0.7008401580422076</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7217533134541756</v>
+        <v>0.7225203395545298</v>
       </c>
     </row>
     <row r="24">
